--- a/params_hydro.xlsx
+++ b/params_hydro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCC7FC4-6026-40EF-AD6A-968356AC5B00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC95EB5-D6A4-48BF-AE42-5E75EECB3B60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t>val</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>m/h, cell wall permeability (base 0.9)</t>
+  </si>
+  <si>
+    <t>HLPlant</t>
+  </si>
+  <si>
+    <t>Multiplier for the half life of the plant, 0.1 as base</t>
   </si>
 </sst>
 </file>
@@ -677,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,8 +809,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="1">
-        <f>0.1/24</f>
-        <v>4.1666666666666666E-3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
@@ -885,7 +890,7 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -895,8 +900,8 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
-        <v>0.01</v>
+      <c r="B17" s="1">
+        <v>0.1</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -909,8 +914,9 @@
       <c r="A18" t="s">
         <v>96</v>
       </c>
-      <c r="B18">
-        <v>0.01</v>
+      <c r="B18" s="1">
+        <f>B17</f>
+        <v>0.1</v>
       </c>
       <c r="C18">
         <v>1.82E-3</v>
@@ -1242,6 +1248,17 @@
       </c>
       <c r="D42" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
